--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Provincia-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,13 +590,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,23</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>103,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>103,74%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>120,58%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>59,81%</t>
         </is>
@@ -668,49 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,59; 22,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 21,92</t>
+          <t>9,68; 24,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 24,58</t>
+          <t>3,99; 14,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 14,51</t>
+          <t>48,21; 196,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,96; 216,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,74; 188,82</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>55,86; 225,0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>18,15; 116,24</t>
+          <t>21,0; 119,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,5</t>
+          <t>16,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,58</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>64,88%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>101,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>116,18%</t>
         </is>
@@ -768,49 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 17,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 17,8</t>
+          <t>8,04; 18,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 18,3</t>
+          <t>11,34; 20,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 21,34</t>
+          <t>27,69; 116,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,99; 161,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,66; 118,0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>50,22; 162,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>68,78; 182,39</t>
+          <t>66,02; 172,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,09</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>27,56%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>93,34%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>40,83%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 12,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 12,25</t>
+          <t>5,27; 16,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 17,72</t>
+          <t>3,72; 15,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 15,18</t>
+          <t>-4,16; 73,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,58; 171,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 72,02</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>34,89; 184,89</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>11,31; 74,84</t>
+          <t>13,63; 75,09</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>14,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>113,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>113,86%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>88,09%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>8,03%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,84; 23,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 22,51</t>
+          <t>8,56; 21,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 21,07</t>
+          <t>-11,76; 10,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 10,4</t>
+          <t>61,44; 198,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,54; 155,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,56; 183,23</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>42,66; 154,02</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,85; 45,25</t>
+          <t>-40,17; 47,62</t>
         </is>
       </c>
     </row>
@@ -1020,40 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,17</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,98</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>114,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>114,83%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>91,47%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>67,19%</t>
         </is>
@@ -1068,49 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,48; 34,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,86; 33,34</t>
+          <t>6,25; 21,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 21,67</t>
+          <t>-3,27; 16,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 16,59</t>
+          <t>57,64; 196,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,11; 187,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,59; 188,63</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>26,38; 179,62</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-15,37; 145,32</t>
+          <t>-14,63; 143,17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,40 +1004,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>44,16%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>46,27%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>47,13%</t>
         </is>
@@ -1168,49 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 17,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 17,92</t>
+          <t>1,24; 16,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 15,59</t>
+          <t>5,48; 18,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,0; 18,86</t>
+          <t>9,76; 91,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,07; 106,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 90,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 103,95</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>21,79; 88,67</t>
+          <t>19,3; 84,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,40 +1084,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>74,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>74,05%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>51,02%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>46,96%</t>
         </is>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,15; 16,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,69; 16,13</t>
+          <t>2,63; 11,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,66; 11,54</t>
+          <t>-5,58; 22,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 22,91</t>
+          <t>39,24; 120,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,99; 94,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,0; 122,73</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>16,51; 96,63</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-27,89; 107,06</t>
+          <t>-23,02; 104,42</t>
         </is>
       </c>
     </row>
@@ -1320,40 +1164,30 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>67,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>67,39%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>50,02%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>180,71%</t>
         </is>
@@ -1368,42 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,33; 13,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,55; 13,39</t>
+          <t>3,59; 12,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,94</t>
+          <t>12,26; 23,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,35; 22,93</t>
+          <t>34,28; 112,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,04; 90,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,69; 111,79</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>23,04; 86,6</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>91,87; 551,25</t>
+          <t>91,85; 505,48</t>
         </is>
       </c>
     </row>
@@ -1420,40 +1244,30 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,19</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,19</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>71,68%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>72,7%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>72,21%</t>
         </is>
@@ -1468,42 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,24; 14,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,12; 14,24</t>
+          <t>8,98; 12,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,72</t>
+          <t>7,28; 16,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,34</t>
+          <t>56,77; 87,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,81; 89,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>55,85; 88,77</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>54,63; 89,46</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>44,14; 112,64</t>
+          <t>43,15; 110,98</t>
         </is>
       </c>
     </row>
@@ -1516,16 +1320,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
